--- a/medicine/Sexualité et sexologie/Maîtresse_Cindy/Maîtresse_Cindy.xlsx
+++ b/medicine/Sexualité et sexologie/Maîtresse_Cindy/Maîtresse_Cindy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtresse_Cindy</t>
+          <t>Maîtresse_Cindy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maîtresse Cindy est une dominatrice française[1]. Scénographe dans les rapports sadomasochistes et artiste transdisciplinaire, elle réside à Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maîtresse Cindy est une dominatrice française. Scénographe dans les rapports sadomasochistes et artiste transdisciplinaire, elle réside à Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtresse_Cindy</t>
+          <t>Maîtresse_Cindy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maîtresse Cindy a donné la conférence Fantasme des liés, hommage aux pratiquants sadomasochistes, au Centre Georges-Pompidou[2] le 30 mai 2001, dans le cadre de la série de conférences, débats et rencontres « Hors série "Mauvais genres" ».  
-Maîtresse Cindy réalise des performances et installations vidéo sur le thème des rapports sadomasochistes : France Culture lui a consacré un documentaire de 58 minutes, Le corps soumis : Dans le donjon de Maîtresse Cindy[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maîtresse Cindy a donné la conférence Fantasme des liés, hommage aux pratiquants sadomasochistes, au Centre Georges-Pompidou le 30 mai 2001, dans le cadre de la série de conférences, débats et rencontres « Hors série "Mauvais genres" ».  
+Maîtresse Cindy réalise des performances et installations vidéo sur le thème des rapports sadomasochistes : France Culture lui a consacré un documentaire de 58 minutes, Le corps soumis : Dans le donjon de Maîtresse Cindy.
 Abysses, film court réalisé par Maîtresse Cindy, a été diffusé en novembre 2008 au cinéma Le Grand Rex à Paris, à l'occasion du Festival de films gays et lesbiens de Paris.[réf. nécessaire]
-Maîtresse Cindy « Dominatrice » a collaboré à des projets sonores avec le compositeur Frédéric Acquaviva[4].
-Certains photographes ont collaboré avec Maîtresse Cindy : Romain Slocombe, Élizabeth Prouvost, Gérard Feitz, Yan Morvan et Barbara Ryckewaert, entre autres. Après une année de travail avec Maîtresse Cindy, l'artiste Barbara Ryckewaert a présenté à l'École nationale supérieure des arts décoratifs une exposition de photographies[5], Le donjon de Maîtresse Cindy.
-Auteur et interprète de poèmes, elle a participé à des lectures performances et enregistré pour l'émission Surpris par la nuit[6] d'Alain Veinstein, À mes bottes, poème diffusé le 11 septembre 2002 sur France Culture.
+Maîtresse Cindy « Dominatrice » a collaboré à des projets sonores avec le compositeur Frédéric Acquaviva.
+Certains photographes ont collaboré avec Maîtresse Cindy : Romain Slocombe, Élizabeth Prouvost, Gérard Feitz, Yan Morvan et Barbara Ryckewaert, entre autres. Après une année de travail avec Maîtresse Cindy, l'artiste Barbara Ryckewaert a présenté à l'École nationale supérieure des arts décoratifs une exposition de photographies, Le donjon de Maîtresse Cindy.
+Auteur et interprète de poèmes, elle a participé à des lectures performances et enregistré pour l'émission Surpris par la nuit d'Alain Veinstein, À mes bottes, poème diffusé le 11 septembre 2002 sur France Culture.
 </t>
         </is>
       </c>
